--- a/src/pages/downloads/Duplicate_Report.XLSX
+++ b/src/pages/downloads/Duplicate_Report.XLSX
@@ -160,7 +160,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>09-02-2025 @ 07:12</t>
+          <t>09-08-2025 @ 00:05</t>
         </is>
       </c>
     </row>
@@ -184,7 +184,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Work Date: 09-08-2025; Shift: 2ND, 3RD</t>
+          <t>Work Date: 09-12-2025; Shift: 2ND, 3RD</t>
         </is>
       </c>
     </row>
@@ -246,21 +246,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SELECT steadyNm, payroll, flexType, operation, vesselNm, jobNo, jobType, startTm FROM (select ojs.steady_nm steadyNm, ojs.payroll payroll, (case when ojs.flex_type=1 then 'Flex' when ojs.flex_type = 2 then 'Double Flex' else '' end) flexType, d.name operation,  ji.VESSEL_NM vesselNm, ji.JOB_NO jobNo, ojt.name jobType, oo.START_TM startTm from ORDER_JOB_STEADY ojs, ORDER_JOB_TYPE ojt, OPS_ORDER oo, JOB_INFO ji,department d, (select ojs.payroll payroll from ORDER_JOB_STEADY ojs, ORDER_JOB_TYPE ojt, OPS_ORDER oo where ojs.ORDER_JOB_TYPE_ID  = ojt.id and ojt.ORDER_ID = oo.ID and oo.type=2 and oo.WORK_DT = '20250908' and oo.shift= '2' group by ojs.PAYROLL having count(ojs.PAYROLL)&gt;1) ooGroup where ojs.ORDER_JOB_TYPE_ID  = ojt.id and ojt.ORDER_ID = oo.ID and oo.JOB_ID =ji.id and d.ops_type=oo.ops_type and oo.type=2 and oo.WORK_DT = '20250908' and oo.shift= '2' and ooGroup.payroll = ojs.payroll union all select ojs.steady_nm steadyNm, ojs.payroll payroll, (case when ojs.flex_type=1 then 'Flex' when ojs.flex_type = 2 then 'Double Flex' else '' end) flexType, d.name operation,  ji.VESSEL_NM vesselNm, ji.JOB_NO jobNo, ojt.name jobType, oo.START_TM startTm from ORDER_JOB_STEADY ojs, ORDER_JOB_TYPE ojt, OPS_ORDER oo, JOB_INFO ji,department d, (select ojs.payroll payroll from ORDER_JOB_STEADY ojs, ORDER_JOB_TYPE ojt, OPS_ORDER oo where ojs.ORDER_JOB_TYPE_ID  = ojt.id and ojt.ORDER_ID = oo.ID and oo.type=2 and oo.WORK_DT = '20250908' and oo.shift= '3' group by ojs.PAYROLL having count(ojs.PAYROLL)&gt;1) ooGroup where ojs.ORDER_JOB_TYPE_ID  = ojt.id and ojt.ORDER_ID = oo.ID and oo.JOB_ID =ji.id and d.ops_type=oo.ops_type and oo.type=2 and oo.WORK_DT = '20250908' and oo.shift= '3' and ooGroup.payroll = ojs.payroll) std ORDER BY steadyNm, operation, jobType</t>
+          <t>SELECT steadyNm, payroll, flexType, operation, vesselNm, jobNo, jobType, startTm FROM (select ojs.steady_nm steadyNm, ojs.payroll payroll, (case when ojs.flex_type=1 then 'Flex' when ojs.flex_type = 2 then 'Double Flex' else '' end) flexType, d.name operation,  ji.VESSEL_NM vesselNm, ji.JOB_NO jobNo, ojt.name jobType, oo.START_TM startTm from ORDER_JOB_STEADY ojs, ORDER_JOB_TYPE ojt, OPS_ORDER oo, JOB_INFO ji,department d, (select ojs.payroll payroll from ORDER_JOB_STEADY ojs, ORDER_JOB_TYPE ojt, OPS_ORDER oo where ojs.ORDER_JOB_TYPE_ID  = ojt.id and ojt.ORDER_ID = oo.ID and oo.type=2 and oo.WORK_DT = '20250912' and oo.shift= '2' group by ojs.PAYROLL having count(ojs.PAYROLL)&gt;1) ooGroup where ojs.ORDER_JOB_TYPE_ID  = ojt.id and ojt.ORDER_ID = oo.ID and oo.JOB_ID =ji.id and d.ops_type=oo.ops_type and oo.type=2 and oo.WORK_DT = '20250912' and oo.shift= '2' and ooGroup.payroll = ojs.payroll union all select ojs.steady_nm steadyNm, ojs.payroll payroll, (case when ojs.flex_type=1 then 'Flex' when ojs.flex_type = 2 then 'Double Flex' else '' end) flexType, d.name operation,  ji.VESSEL_NM vesselNm, ji.JOB_NO jobNo, ojt.name jobType, oo.START_TM startTm from ORDER_JOB_STEADY ojs, ORDER_JOB_TYPE ojt, OPS_ORDER oo, JOB_INFO ji,department d, (select ojs.payroll payroll from ORDER_JOB_STEADY ojs, ORDER_JOB_TYPE ojt, OPS_ORDER oo where ojs.ORDER_JOB_TYPE_ID  = ojt.id and ojt.ORDER_ID = oo.ID and oo.type=2 and oo.WORK_DT = '20250912' and oo.shift= '3' group by ojs.PAYROLL having count(ojs.PAYROLL)&gt;1) ooGroup where ojs.ORDER_JOB_TYPE_ID  = ojt.id and ojt.ORDER_ID = oo.ID and oo.JOB_ID =ji.id and d.ops_type=oo.ops_type and oo.type=2 and oo.WORK_DT = '20250912' and oo.shift= '3' and ooGroup.payroll = ojs.payroll) std ORDER BY steadyNm, operation, jobType</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Start Time: Tue Sep 02 07:12:40 PDT 2025</t>
+          <t>Start Time: Mon Sep 08 00:05:52 PDT 2025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>End Time  : Tue Sep 02 07:12:40 PDT 2025</t>
+          <t>End Time  : Mon Sep 08 00:05:52 PDT 2025</t>
         </is>
       </c>
     </row>
